--- a/outputs/autoaprop.xlsx/autoapropxlsx/I.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/I.XLSX
@@ -175,7 +175,7 @@
     <t>TAINNÁ PADELA BRAGA</t>
   </si>
   <si>
-    <t>Matr.: 3210</t>
+    <t>Matr.: 3705</t>
   </si>
   <si>
     <r>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 3210</v>
+        <v>Matr.: 3705</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
